--- a/explore/openCyto/backupTemplates.xlsx
+++ b/explore/openCyto/backupTemplates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="820" windowWidth="27660" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="11260" windowWidth="27660" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="63">
   <si>
     <t>*</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>NaiveB</t>
+  </si>
+  <si>
+    <t>CD8/CD45RA-/CCR7gate:CD8/CD45RA-</t>
+  </si>
+  <si>
+    <t>CD8/CD45RA+/CCR7gate:CD8/CD45RA+</t>
+  </si>
+  <si>
+    <t>adjust=0.3,gate_range=c(150,200)</t>
+  </si>
+  <si>
+    <t>CD8/CD45RA-</t>
+  </si>
+  <si>
+    <t>adjust=1</t>
+  </si>
+  <si>
+    <t>CD8/CD45RA+</t>
   </si>
 </sst>
 </file>
@@ -526,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1506,6 +1524,166 @@
       </c>
       <c r="J40" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
